--- a/pred_ohlcv/54_21/2020-01-11 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 HYC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>205608.7386558254</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>176923.5996558254</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>164413.8393558254</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-166894.6727441745</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-29423.35404417454</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>386103.3166973044</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>9715.570297304366</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-230284.4297026956</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-709121.5837026956</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1864077.869502696</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2021786.068224746</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1578152.736624746</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 HYC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1259446.0784</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1701965.802363455</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1575003.835963455</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1852624.697763456</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>205608.7386558254</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>176923.5996558254</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>164413.8393558254</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-166894.6727441745</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-29423.35404417454</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>386103.3166973044</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>9715.570297304366</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1864077.869502696</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2021786.068224746</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1578152.736624746</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
